--- a/templates/BM02.xlsx
+++ b/templates/BM02.xlsx
@@ -10,7 +10,7 @@
     <sheet name="BM02" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'BM02'!$A$1:$H$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'BM02'!$A$1:$H$24</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -100,9 +100,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
-  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -169,7 +166,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -196,19 +193,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -264,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -279,9 +263,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -300,79 +281,58 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -717,81 +677,80 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:H22"/>
+  <dimension ref="A2:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD20"/>
+      <selection activeCell="B13" sqref="B13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="2" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:8" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -803,7 +762,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
@@ -811,202 +770,169 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="26" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="27"/>
+      <c r="G9" s="17"/>
       <c r="H9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="15"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:8" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="10" t="s">
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="5" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" s="5" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" s="5" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="23" t="s">
+    <row r="13" spans="1:8" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" s="5" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="11">
-        <f>SUM(H12:H14)</f>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="10">
+        <f>SUM(H12:H13)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
+    <row r="15" spans="1:8" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+    </row>
+    <row r="16" spans="1:8" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-    </row>
-    <row r="18" spans="1:8" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B17" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="10" t="s">
+      <c r="C17" s="26"/>
+      <c r="D17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G17" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H17" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="5" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" s="5" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="1:8" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-    </row>
-    <row r="22" spans="1:8" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="12" t="s">
+    <row r="18" spans="1:8" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="1:8" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12" t="s">
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="12"/>
+      <c r="H19" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
+  <mergeCells count="17">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A15:H15"/>
     <mergeCell ref="A11:H11"/>
   </mergeCells>
   <pageMargins left="0.44" right="0.24" top="0.5" bottom="0.52" header="0.3" footer="0.26"/>
